--- a/Job 1 Breakdown.xlsx
+++ b/Job 1 Breakdown.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Mark Zeagler\ShareDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Mark Zeagler\Documents\GitHub\CS3502_Group_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7965" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7965" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="10" r:id="rId1"/>
@@ -817,7 +817,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="8">
+    <tableColumn id="2" name="Data" dataDxfId="0">
       <calculatedColumnFormula>Table246810121416[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -841,7 +841,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="7">
+    <tableColumn id="2" name="Data" dataDxfId="8">
       <calculatedColumnFormula>Table24681012141618[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -878,7 +878,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="6">
+    <tableColumn id="2" name="Data" dataDxfId="7">
       <calculatedColumnFormula>Table2468101214161820[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -891,7 +891,7 @@
   <autoFilter ref="B3:C70"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="4">
+    <tableColumn id="2" name="Data" dataDxfId="6">
       <calculatedColumnFormula>Table257911131517192[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -917,7 +917,7 @@
   <autoFilter ref="B3:C70"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="2">
+    <tableColumn id="2" name="Data" dataDxfId="4">
       <calculatedColumnFormula>Table25791113151719223[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -943,7 +943,7 @@
   <autoFilter ref="B3:C70"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="0">
+    <tableColumn id="2" name="Data" dataDxfId="2">
       <calculatedColumnFormula>Table2579111315171922325[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F15" s="9" t="str">
         <f>Table24681012141618[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f>F15</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F15" t="str">
         <f>Table2468101214161820[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="C59" t="str">
         <f>Table25791113151719[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="F15" t="str">
         <f>Table246810121416182022[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="C59" t="str">
         <f>Table257911131517192[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="F15" t="str">
         <f>Table24681012141618202224[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="C59" t="str">
         <f>Table25791113151719223[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="F15" t="str">
         <f>Table2468101214161820222426[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="C59" t="str">
         <f>Table2579111315171922325[[#This Row],[Data]]</f>
-        <v>0x00000060</v>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -10371,7 +10371,7 @@
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10639,7 +10639,7 @@
       <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -11144,8 +11144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11429,8 +11429,8 @@
         <v>11</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>F14</f>
-        <v>0x00000060</v>
+        <f>C28</f>
+        <v>0x00000006</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -11561,7 +11561,7 @@
       <c r="B28">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="9" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Job 1 Breakdown.xlsx
+++ b/Job 1 Breakdown.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Mark Zeagler\Documents\GitHub\CS3502_Group_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\CS3502_Group_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7965" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="7970" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Instruction 11" sheetId="13" r:id="rId13"/>
     <sheet name="Instruction 12" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,7 +817,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="0">
+    <tableColumn id="2" name="Data" dataDxfId="8">
       <calculatedColumnFormula>Table246810121416[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -841,7 +841,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="8">
+    <tableColumn id="2" name="Data" dataDxfId="7">
       <calculatedColumnFormula>Table24681012141618[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -878,7 +878,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="7">
+    <tableColumn id="2" name="Data" dataDxfId="6">
       <calculatedColumnFormula>Table2468101214161820[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -891,7 +891,7 @@
   <autoFilter ref="B3:C70"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="6">
+    <tableColumn id="2" name="Data" dataDxfId="5">
       <calculatedColumnFormula>Table257911131517192[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -904,7 +904,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="5">
+    <tableColumn id="2" name="Data" dataDxfId="4">
       <calculatedColumnFormula>Table246810121416182022[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -917,7 +917,7 @@
   <autoFilter ref="B3:C70"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="4">
+    <tableColumn id="2" name="Data" dataDxfId="3">
       <calculatedColumnFormula>Table25791113151719223[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -930,7 +930,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="3">
+    <tableColumn id="2" name="Data" dataDxfId="2">
       <calculatedColumnFormula>Table24681012141618202224[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -943,7 +943,7 @@
   <autoFilter ref="B3:C70"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="2">
+    <tableColumn id="2" name="Data" dataDxfId="1">
       <calculatedColumnFormula>Table2579111315171922325[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -956,7 +956,7 @@
   <autoFilter ref="E3:F19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Address"/>
-    <tableColumn id="2" name="Data" dataDxfId="1">
+    <tableColumn id="2" name="Data" dataDxfId="0">
       <calculatedColumnFormula>Table2468101214161820222426[[#This Row],[Data]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1312,14 +1312,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1596,20 +1596,20 @@
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0x42BD0000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v xml:space="preserve">ST (R13) R11 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>// Store the data in the address pointed to by reg-13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0x00000060</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0x000000DC</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -2371,21 +2371,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0x4C0D0004</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v xml:space="preserve">ADDI R13 4 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>// Point to the next address of temp buffer</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0x00000060</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0x05070000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>0x4C060001</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0x4C090004</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>0x10658000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0x5681003C</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0xC10000AC</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0x92000000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0x0000002C</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0x00000045</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0x00000007</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>0x00000005</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>0x00000055</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -3216,17 +3216,17 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0x4C060001</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v xml:space="preserve">ADD I R6 1 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>// Increment the counter</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0x00000060</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0x000000E0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0x05070000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0x4C060001</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0x4C090004</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0x10658000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0x5681003C</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0xC10000AC</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>0x92000000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0x0000002C</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0x00000045</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0x00000007</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>0x00000005</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0x00000055</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -4057,17 +4057,17 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>0x10658000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v xml:space="preserve">SLT R8 R6 R5 </v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>// Set reg-8 to 1 if reg-6 &lt; reg-5, and 0 otherwise</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0x00000060</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>0x000000E0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0x05070000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>0x4C060001</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>0x4C090004</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>0x10658000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>0x5681003C</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0xC10000AC</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>0x92000000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0x0000002C</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>0x00000045</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0x00000007</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0x00000005</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>0x00000055</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -4900,21 +4900,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0x56810018</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>BNE R8 R1 LOOP1 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>// Branch if content of Reg- 8 and Reg-1 is not equal</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>0x00000060</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>0x000000E0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0x05070000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>0x4C060001</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>0x4C090004</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0x10658000</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0x5681003C</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>0xC10000AC</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>0x92000000</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>0x0000002C</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0x00000045</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0x00000007</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0x00000001</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>0x00000005</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0x0000000A</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>0x00000055</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0x00000000</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -5746,17 +5746,17 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.26953125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>0xC050005C</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>RD R5 Inpt </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>// Read the no. of integers to be added from the input buffer</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -6505,17 +6505,17 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0x4B060000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v xml:space="preserve">MOVI R6 0 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>// Set a counter to reg-6 and initialize to 0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -7278,17 +7278,17 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>0x4B010000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v xml:space="preserve">MOVI R1 0 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>// Set the Zero register to its value</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -8052,17 +8052,17 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0x4B000000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v xml:space="preserve">MOVI R0 0 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>// Clear Accumulator</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -8823,20 +8823,20 @@
   <dimension ref="B2:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>0x4F0A005C</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>LDI R10 Inpt </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>// Load address of input buffer into reg 10</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -9226,15 +9226,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -9600,17 +9600,17 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>0x4F0D00DC</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>LDI R13 Temp</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v> // Load address of temp buffer into reg 13</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>0x0000005C</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -10336,7 +10336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -10374,17 +10374,17 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>0x4C0A0004</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v xml:space="preserve">LOOP1: ADDI R10 4 </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>// Point to the next address of input buffer by adding 4</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>0x000000DC</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
@@ -11144,21 +11144,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.54296875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>0xC0BA0000</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -11238,7 +11238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v xml:space="preserve">RD R11 (R10) </v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>// Load the content(data) of address in reg-10 in reg-11</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>0x00000060</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0x00000006</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>13</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>0x000000DC</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>14</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>15</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>16</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>17</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>18</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>19</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>20</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>21</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>22</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>23</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>24</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>25</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>26</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>27</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>28</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>29</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>30</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>31</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>32</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>33</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>34</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>35</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>36</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>37</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>38</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>39</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>40</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>41</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>42</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>43</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>44</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>45</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>46</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>47</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>48</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>49</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>50</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>51</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>52</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>53</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>54</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>55</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>56</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>57</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>58</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>59</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>60</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>61</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>62</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>63</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>64</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>65</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>66</v>
       </c>
